--- a/biology/Zoologie/Chindongo_elongatus/Chindongo_elongatus.xlsx
+++ b/biology/Zoologie/Chindongo_elongatus/Chindongo_elongatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudotropheus elongatus
 Chindongo elongatus est une espèce de poissons d'eau douce de la famille des Cichlidae (ordre des Cichliformes). Cette espèce, anciennement classée sous le taxon Pseudotropheus elongatus, est endémique du lac Malawi en Afrique.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chindongo elongatus a longtemps été considéré comme très répandu sur tout le pourtour du lac Malawi et représenté sous de nombreuses formes géographiques allant du tout bleu au tout jaune. Cependant il s'avère que l'espèce est simplement localisée à "Nkata Bay" et "Mbamba Bay" sur la côte tanzanienne du lac[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chindongo elongatus a longtemps été considéré comme très répandu sur tout le pourtour du lac Malawi et représenté sous de nombreuses formes géographiques allant du tout bleu au tout jaune. Cependant il s'avère que l'espèce est simplement localisée à "Nkata Bay" et "Mbamba Bay" sur la côte tanzanienne du lac.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chindongo elongatus peut mesurer jusqu'à 95 mm, queue non comprise[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chindongo elongatus peut mesurer jusqu'à 95 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Variétés géographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anciennement[3] un grand nombre de variétés géographiques étaient plus ou moins reconnues comme faisant partie de l’espèce, notamment :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement un grand nombre de variétés géographiques étaient plus ou moins reconnues comme faisant partie de l’espèce, notamment :
 Chindogon sp. "elongatus" "chewere"
 Chindogon sp. "elongatus" "Ruarwe"
 Chindogon sp. "elongatus" "Mpanga"
 Chindogon sp. "elongatus" "Masimbwe"
-Et un certain nombre d'autres encore[4].
+Et un certain nombre d'autres encore.
 			Variété de "Mpanga".
 			Variété de "Likoma Island".
 </t>
@@ -612,11 +630,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chindongo elongatus (Fryer, 1956)[1]. Pour le GBIF ce taxon n'est pas valide et le considère comme un synonyme de Pseudotropheus elongatus.
-L'espèce a été initialement classée dans le genre Pseudotropheus sous le protonyme Pseudotropheus elongatus Fryer, 1956[1].
-Chindongo elongatus a pour synonyme[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chindongo elongatus (Fryer, 1956). Pour le GBIF ce taxon n'est pas valide et le considère comme un synonyme de Pseudotropheus elongatus.
+L'espèce a été initialement classée dans le genre Pseudotropheus sous le protonyme Pseudotropheus elongatus Fryer, 1956.
+Chindongo elongatus a pour synonyme :
 Pseudotropheus elongatus Fryer, 1956</t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) G. Fryer, « New species of cichlid fishes from Lake Nyasa », Revue de Zoologie et de Botanique Africaines, Belgique, vol. 53, nos 1-2,‎ 14 avril 1956, p. 81-91 (ISSN 0035-1814).</t>
         </is>
